--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -1,34 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayma\PycharmProjects\poap\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892D8491-4CBC-4E3A-A1D5-5BC8F8B43F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F4BCA5-D0F1-4834-8B99-AE5B8E57BA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="tasks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>The height of the object</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>The width of the object</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>The number of rows in the object</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>task1</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>task3</t>
   </si>
 </sst>
 </file>
@@ -84,11 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,54 +428,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45392</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45402</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -1,91 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayma\PycharmProjects\poap\data\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F4BCA5-D0F1-4834-8B99-AE5B8E57BA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="timeframes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="tasks" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>The height of the object</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>The width of the object</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>The number of rows in the object</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>task1</t>
-  </si>
-  <si>
-    <t>task2</t>
-  </si>
-  <si>
-    <t>task3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,44 +48,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,52 +422,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The start date of the project</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pixels per day</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The height of the object</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>200</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The width of the object</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The number of rows in the object</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -479,69 +530,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>finish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>span</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>finish</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45366</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>task1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45376</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>task2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45392</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45402</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>task3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -1,39 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayma\PycharmProjects\poap\data\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA4520-E816-478F-8EAE-FE2B68275466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="timeframes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="tasks" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="timeframes" sheetId="2" r:id="rId2"/>
+    <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>The start date of the project</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>Pixels per day</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>The height of the object</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>The width of the object</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>The number of rows in the object</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>task1</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>task3</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,93 +140,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,106 +464,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>The start date of the project</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>resolution</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pixels per day</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The height of the object</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>The width of the object</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>rows</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The number of rows in the object</t>
-        </is>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -530,67 +540,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>finish</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>span</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-06-01</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>0.25</v>
       </c>
     </row>
@@ -600,94 +594,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>finish</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>task1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>task2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>task3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -1,131 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayma\PycharmProjects\poap\data\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA4520-E816-478F-8EAE-FE2B68275466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="timeframes" sheetId="2" r:id="rId2"/>
-    <sheet name="tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="timeframes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="tasks" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>The start date of the project</t>
-  </si>
-  <si>
-    <t>resolution</t>
-  </si>
-  <si>
-    <t>Pixels per day</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>The height of the object</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>The width of the object</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>The number of rows in the object</t>
-  </si>
-  <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2024-09-01</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>task1</t>
-  </si>
-  <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
-    <t>task2</t>
-  </si>
-  <si>
-    <t>2024-01-03</t>
-  </si>
-  <si>
-    <t>2024-08-01</t>
-  </si>
-  <si>
-    <t>task3</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>2025-03-01</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -140,43 +48,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,74 +422,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The start date of the project</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pixels per day</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The height of the object</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The width of the object</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The number of rows in the object</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -540,51 +530,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>finish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>span</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -594,66 +600,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>finish</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>task1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>task2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>task3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,77 +450,107 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
+          <t>page_width</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The start date of the project</t>
+          <t>The width of the page in arbitrary units</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>page_height</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pixels per day</t>
+          <t>The height of the page in arbitrary units</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>width</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>200</v>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The height of the object</t>
+          <t>The start date of the chart</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>header_height</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The width of the object</t>
+          <t>The height of the header as a proportion of the page height</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>rows</t>
+          <t>footer_height</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The height of the footer as a proportion of the page height</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>total_scale_height</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The total height available for scales as a proportion of the page height</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>row_quantity</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The number of rows in the object</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The number of rows in the chart</t>
         </is>
       </c>
     </row>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="timeframes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="tasks" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,150 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>units</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>page_width</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>The width of the page in arbitrary units</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>page_height</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>The height of the page in arbitrary units</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The start date of the chart</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>header_height</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>The height of the header as a proportion of the page height</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>footer_height</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The height of the footer as a proportion of the page height</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>total_scale_height</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>The total height available for scales as a proportion of the page height</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>row_quantity</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>The number of rows in the chart</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>finish</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>span</t>
+          <t>background_colour</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>font_colour</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>font_size</t>
         </is>
       </c>
     </row>
@@ -591,11 +461,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5</v>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -604,11 +484,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.25</v>
+          <t>weeks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -617,107 +507,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.25</v>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>finish</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>task1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-01-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>task2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>task3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="scales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,116 +434,104 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>background_colour</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>background_colour</t>
+          <t>font_colour</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>font_colour</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>font_size</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>days</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>black</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>weeks</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>weeks</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>black</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>months</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>black</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>black</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>14</v>
       </c>
     </row>

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="scales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="frame" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="layout" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="scales" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,162 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>frame_width</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>frame_height</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>frame_units</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>header_height</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>footer_height</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>task_list_width</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>top_scale_height</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bottom_scale_height</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>layout_colour</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/excel/sample.xlsx
+++ b/data/excel/sample.xlsx
@@ -1,39 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayma\PycharmProjects\poap\data\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376A8F0-1209-458F-856C-88C73CF07CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5265" yWindow="2490" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="frame" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="layout" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="scales" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="frame" sheetId="1" r:id="rId1"/>
+    <sheet name="layout" sheetId="2" r:id="rId2"/>
+    <sheet name="scales" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>frame_width</t>
+  </si>
+  <si>
+    <t>frame_height</t>
+  </si>
+  <si>
+    <t>frame_units</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>header_height</t>
+  </si>
+  <si>
+    <t>footer_height</t>
+  </si>
+  <si>
+    <t>task_list_width</t>
+  </si>
+  <si>
+    <t>top_scale_height</t>
+  </si>
+  <si>
+    <t>bottom_scale_height</t>
+  </si>
+  <si>
+    <t>layout_colour</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>background_colour</t>
+  </si>
+  <si>
+    <t>font_colour</t>
+  </si>
+  <si>
+    <t>font_size</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,93 +128,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,61 +452,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>frame_width</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>frame_height</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>frame_units</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -485,91 +502,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>header_height</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>footer_height</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>task_list_width</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>top_scale_height</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bottom_scale_height</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>layout_colour</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -578,118 +571,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>background_colour</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>font_colour</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>font_size</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>days</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>weeks</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
     </row>
